--- a/data/pca/factorExposure/factorExposure_2012-04-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-27.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01711390641847072</v>
+        <v>-0.01672468454184482</v>
       </c>
       <c r="C2">
-        <v>-0.03518852594998348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02814461396960699</v>
+      </c>
+      <c r="D2">
+        <v>0.001170973035462609</v>
+      </c>
+      <c r="E2">
+        <v>-0.01128107341034998</v>
+      </c>
+      <c r="F2">
+        <v>-0.009384023847519045</v>
+      </c>
+      <c r="G2">
+        <v>-0.002356741331897281</v>
+      </c>
+      <c r="H2">
+        <v>-0.04925123405939665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07607456138836528</v>
+        <v>-0.08472962774530256</v>
       </c>
       <c r="C4">
-        <v>-0.05563759596643436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03720558633918186</v>
+      </c>
+      <c r="D4">
+        <v>0.07050097153765922</v>
+      </c>
+      <c r="E4">
+        <v>-0.00294775596392158</v>
+      </c>
+      <c r="F4">
+        <v>-0.02966927012796593</v>
+      </c>
+      <c r="G4">
+        <v>-0.006045856151590402</v>
+      </c>
+      <c r="H4">
+        <v>0.04011493116908866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1065015133411271</v>
+        <v>-0.1197508500916027</v>
       </c>
       <c r="C6">
-        <v>-0.05384335929073712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.03400742861756327</v>
+      </c>
+      <c r="D6">
+        <v>0.00723062059122434</v>
+      </c>
+      <c r="E6">
+        <v>-0.002233249630089655</v>
+      </c>
+      <c r="F6">
+        <v>-0.06080192213614451</v>
+      </c>
+      <c r="G6">
+        <v>-0.02557621933755792</v>
+      </c>
+      <c r="H6">
+        <v>-0.0715742001856132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04949025736616285</v>
+        <v>-0.06095246329365923</v>
       </c>
       <c r="C7">
-        <v>-0.02705591304850708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.01839855015765627</v>
+      </c>
+      <c r="D7">
+        <v>0.04531431666122045</v>
+      </c>
+      <c r="E7">
+        <v>-0.02680103081440178</v>
+      </c>
+      <c r="F7">
+        <v>-0.03917864375173546</v>
+      </c>
+      <c r="G7">
+        <v>0.03841101605427048</v>
+      </c>
+      <c r="H7">
+        <v>0.02376292093086986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03639263100098197</v>
+        <v>-0.03883993683258956</v>
       </c>
       <c r="C8">
-        <v>-0.01017090417337008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.002947176939486419</v>
+      </c>
+      <c r="D8">
+        <v>0.03362775731057499</v>
+      </c>
+      <c r="E8">
+        <v>-0.0197807834354357</v>
+      </c>
+      <c r="F8">
+        <v>-0.03807831706263419</v>
+      </c>
+      <c r="G8">
+        <v>-0.03217148055384145</v>
+      </c>
+      <c r="H8">
+        <v>-0.006242598871628847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06840472883163896</v>
+        <v>-0.0761496226747015</v>
       </c>
       <c r="C9">
-        <v>-0.04538580093402538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02805349687825182</v>
+      </c>
+      <c r="D9">
+        <v>0.06456317032836854</v>
+      </c>
+      <c r="E9">
+        <v>-0.02341922688996081</v>
+      </c>
+      <c r="F9">
+        <v>-0.03591477916042664</v>
+      </c>
+      <c r="G9">
+        <v>-0.00961445012851465</v>
+      </c>
+      <c r="H9">
+        <v>0.05465241341097161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03039097136990614</v>
+        <v>-0.0363249664460558</v>
       </c>
       <c r="C10">
-        <v>-0.03599081459321822</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04330012104520944</v>
+      </c>
+      <c r="D10">
+        <v>-0.170858491942466</v>
+      </c>
+      <c r="E10">
+        <v>-0.04834186231019693</v>
+      </c>
+      <c r="F10">
+        <v>-0.04195842171366317</v>
+      </c>
+      <c r="G10">
+        <v>0.03696216416369291</v>
+      </c>
+      <c r="H10">
+        <v>-0.03886079188328777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07095032559439114</v>
+        <v>-0.07512434025807076</v>
       </c>
       <c r="C11">
-        <v>-0.04590239755562166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02629400523964333</v>
+      </c>
+      <c r="D11">
+        <v>0.06348771524582171</v>
+      </c>
+      <c r="E11">
+        <v>0.01049003581908037</v>
+      </c>
+      <c r="F11">
+        <v>-0.02466111539363603</v>
+      </c>
+      <c r="G11">
+        <v>0.002295759199419937</v>
+      </c>
+      <c r="H11">
+        <v>0.09071814502214509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05729868826923521</v>
+        <v>-0.0640396758929333</v>
       </c>
       <c r="C12">
-        <v>-0.0499711739765174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03459421565399608</v>
+      </c>
+      <c r="D12">
+        <v>0.04936083343523636</v>
+      </c>
+      <c r="E12">
+        <v>-0.0106104515359636</v>
+      </c>
+      <c r="F12">
+        <v>-0.01738808957929852</v>
+      </c>
+      <c r="G12">
+        <v>-0.002715223321754735</v>
+      </c>
+      <c r="H12">
+        <v>0.05464679258339776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06278138986306663</v>
+        <v>-0.06447784141260732</v>
       </c>
       <c r="C13">
-        <v>-0.04338640876494207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02518115873975735</v>
+      </c>
+      <c r="D13">
+        <v>0.04035158769393109</v>
+      </c>
+      <c r="E13">
+        <v>-0.00396346286147119</v>
+      </c>
+      <c r="F13">
+        <v>-0.0009238449350438515</v>
+      </c>
+      <c r="G13">
+        <v>0.0007770333781739528</v>
+      </c>
+      <c r="H13">
+        <v>0.05521155503536811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03199845992567777</v>
+        <v>-0.03980100658597842</v>
       </c>
       <c r="C14">
-        <v>-0.02996319848414209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02547466890898575</v>
+      </c>
+      <c r="D14">
+        <v>0.007609906445938891</v>
+      </c>
+      <c r="E14">
+        <v>-0.02501405326731824</v>
+      </c>
+      <c r="F14">
+        <v>-0.01482667008548534</v>
+      </c>
+      <c r="G14">
+        <v>-0.01466952517111451</v>
+      </c>
+      <c r="H14">
+        <v>0.05949550869590509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03954198765908225</v>
+        <v>-0.03925764584308879</v>
       </c>
       <c r="C15">
-        <v>-0.01150085558725321</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.003437799233735917</v>
+      </c>
+      <c r="D15">
+        <v>0.006733605827126254</v>
+      </c>
+      <c r="E15">
+        <v>-0.04344777473545836</v>
+      </c>
+      <c r="F15">
+        <v>0.003362010871408702</v>
+      </c>
+      <c r="G15">
+        <v>-0.02739620950058342</v>
+      </c>
+      <c r="H15">
+        <v>0.0476962022047524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0602752488963274</v>
+        <v>-0.06723718854466051</v>
       </c>
       <c r="C16">
-        <v>-0.04098168319724702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02607333396291082</v>
+      </c>
+      <c r="D16">
+        <v>0.06287645300671901</v>
+      </c>
+      <c r="E16">
+        <v>-0.002245380955038239</v>
+      </c>
+      <c r="F16">
+        <v>-0.02261896877176681</v>
+      </c>
+      <c r="G16">
+        <v>0.00136238337648436</v>
+      </c>
+      <c r="H16">
+        <v>0.05638256592889117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06487035183506569</v>
+        <v>-0.06393039440263061</v>
       </c>
       <c r="C20">
-        <v>-0.03223488945078962</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01319729268063258</v>
+      </c>
+      <c r="D20">
+        <v>0.04874137697279493</v>
+      </c>
+      <c r="E20">
+        <v>-0.0189654070607632</v>
+      </c>
+      <c r="F20">
+        <v>-0.02169722631372334</v>
+      </c>
+      <c r="G20">
+        <v>-0.005371903295234896</v>
+      </c>
+      <c r="H20">
+        <v>0.05409932867400188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02363551625113473</v>
+        <v>-0.0223946819088042</v>
       </c>
       <c r="C21">
-        <v>0.003398189124761957</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01110162958457371</v>
+      </c>
+      <c r="D21">
+        <v>0.03360193165836903</v>
+      </c>
+      <c r="E21">
+        <v>-0.07601051085190377</v>
+      </c>
+      <c r="F21">
+        <v>0.02317395242572563</v>
+      </c>
+      <c r="G21">
+        <v>-0.01698652967222775</v>
+      </c>
+      <c r="H21">
+        <v>-0.0374712562506707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07355896154028908</v>
+        <v>-0.06615518377056143</v>
       </c>
       <c r="C22">
-        <v>-0.05948132394312576</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03416451559466507</v>
+      </c>
+      <c r="D22">
+        <v>0.1021978075620316</v>
+      </c>
+      <c r="E22">
+        <v>-0.5998641081437307</v>
+      </c>
+      <c r="F22">
+        <v>0.1814670837396427</v>
+      </c>
+      <c r="G22">
+        <v>0.02815202123024105</v>
+      </c>
+      <c r="H22">
+        <v>-0.150535048258151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07452462076075836</v>
+        <v>-0.06669930727831287</v>
       </c>
       <c r="C23">
-        <v>-0.05840345890515537</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03287953607099101</v>
+      </c>
+      <c r="D23">
+        <v>0.1029053047058382</v>
+      </c>
+      <c r="E23">
+        <v>-0.599039936739744</v>
+      </c>
+      <c r="F23">
+        <v>0.1805648552428453</v>
+      </c>
+      <c r="G23">
+        <v>0.0263490427382216</v>
+      </c>
+      <c r="H23">
+        <v>-0.14585820025698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.06955111237884673</v>
+        <v>-0.07776234991923957</v>
       </c>
       <c r="C24">
-        <v>-0.04944301564856276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03205898607058237</v>
+      </c>
+      <c r="D24">
+        <v>0.06133850854462766</v>
+      </c>
+      <c r="E24">
+        <v>-0.0109345169076749</v>
+      </c>
+      <c r="F24">
+        <v>-0.03222174750128801</v>
+      </c>
+      <c r="G24">
+        <v>-0.007473199216673866</v>
+      </c>
+      <c r="H24">
+        <v>0.06540088116728096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07032842331551571</v>
+        <v>-0.07591965100888805</v>
       </c>
       <c r="C25">
-        <v>-0.05551275674205169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03667603661242447</v>
+      </c>
+      <c r="D25">
+        <v>0.05554227775416923</v>
+      </c>
+      <c r="E25">
+        <v>-0.01278013324346239</v>
+      </c>
+      <c r="F25">
+        <v>-0.0264735025546771</v>
+      </c>
+      <c r="G25">
+        <v>-0.01914710234269048</v>
+      </c>
+      <c r="H25">
+        <v>0.06784001255729016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04285848579550922</v>
+        <v>-0.04621126823335615</v>
       </c>
       <c r="C26">
-        <v>-0.007560809429410582</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.000197085823466021</v>
+      </c>
+      <c r="D26">
+        <v>0.02628383334367013</v>
+      </c>
+      <c r="E26">
+        <v>-0.04269572663354013</v>
+      </c>
+      <c r="F26">
+        <v>-0.02105969120569659</v>
+      </c>
+      <c r="G26">
+        <v>0.002646929182237353</v>
+      </c>
+      <c r="H26">
+        <v>0.06470627648685537</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05940571929654653</v>
+        <v>-0.07311996947239997</v>
       </c>
       <c r="C28">
-        <v>-0.07864270546290479</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.08867011475734157</v>
+      </c>
+      <c r="D28">
+        <v>-0.3120989849989484</v>
+      </c>
+      <c r="E28">
+        <v>-0.04228266037054092</v>
+      </c>
+      <c r="F28">
+        <v>-0.05427180956337451</v>
+      </c>
+      <c r="G28">
+        <v>-0.02735270441046958</v>
+      </c>
+      <c r="H28">
+        <v>-0.01612395197610478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04103422652707214</v>
+        <v>-0.04679961053742576</v>
       </c>
       <c r="C29">
-        <v>-0.03024084934387747</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.0235154170070896</v>
+      </c>
+      <c r="D29">
+        <v>0.006698269565988882</v>
+      </c>
+      <c r="E29">
+        <v>-0.04799659702066939</v>
+      </c>
+      <c r="F29">
+        <v>-0.002198259822396481</v>
+      </c>
+      <c r="G29">
+        <v>-0.001105047724567594</v>
+      </c>
+      <c r="H29">
+        <v>0.08733799457490744</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1251268782513777</v>
+        <v>-0.1318123632284754</v>
       </c>
       <c r="C30">
-        <v>-0.09181421075534174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.05718069980699355</v>
+      </c>
+      <c r="D30">
+        <v>0.08783001764707096</v>
+      </c>
+      <c r="E30">
+        <v>-0.03951773434786517</v>
+      </c>
+      <c r="F30">
+        <v>-0.003750871291640237</v>
+      </c>
+      <c r="G30">
+        <v>-0.04444839086926767</v>
+      </c>
+      <c r="H30">
+        <v>-0.0233120262392458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04116752346032386</v>
+        <v>-0.0461810965443992</v>
       </c>
       <c r="C31">
-        <v>-0.01848476221289728</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.0100323298024697</v>
+      </c>
+      <c r="D31">
+        <v>0.0255600733983205</v>
+      </c>
+      <c r="E31">
+        <v>-0.02529027752486479</v>
+      </c>
+      <c r="F31">
+        <v>-0.01135846822818714</v>
+      </c>
+      <c r="G31">
+        <v>0.01675638848901273</v>
+      </c>
+      <c r="H31">
+        <v>0.07478036840368105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03739752492451959</v>
+        <v>-0.0372572017884257</v>
       </c>
       <c r="C32">
-        <v>-0.02156289844148081</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01387503574299041</v>
+      </c>
+      <c r="D32">
+        <v>0.01323183379093527</v>
+      </c>
+      <c r="E32">
+        <v>-0.06981488753486098</v>
+      </c>
+      <c r="F32">
+        <v>0.006333702445241778</v>
+      </c>
+      <c r="G32">
+        <v>-0.04051619067155167</v>
+      </c>
+      <c r="H32">
+        <v>0.0626362451495949</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08015489912766119</v>
+        <v>-0.09433294519325178</v>
       </c>
       <c r="C33">
-        <v>-0.04237215046063283</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.02623986957082975</v>
+      </c>
+      <c r="D33">
+        <v>0.05662156316904966</v>
+      </c>
+      <c r="E33">
+        <v>-0.01711631139226722</v>
+      </c>
+      <c r="F33">
+        <v>-0.004701584431674627</v>
+      </c>
+      <c r="G33">
+        <v>0.008061342224688744</v>
+      </c>
+      <c r="H33">
+        <v>0.07432152225687065</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05541221830665929</v>
+        <v>-0.05944791465685838</v>
       </c>
       <c r="C34">
-        <v>-0.02745092878465732</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01214535947120118</v>
+      </c>
+      <c r="D34">
+        <v>0.05603691452092131</v>
+      </c>
+      <c r="E34">
+        <v>-0.003134178511026224</v>
+      </c>
+      <c r="F34">
+        <v>-0.01500745607754028</v>
+      </c>
+      <c r="G34">
+        <v>-0.006876324155366447</v>
+      </c>
+      <c r="H34">
+        <v>0.05329776627440541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03757512306602025</v>
+        <v>-0.0414422104452174</v>
       </c>
       <c r="C35">
-        <v>-0.009271548256007451</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002649959945947689</v>
+      </c>
+      <c r="D35">
+        <v>0.008561767436409991</v>
+      </c>
+      <c r="E35">
+        <v>-0.02237719309893394</v>
+      </c>
+      <c r="F35">
+        <v>0.009612377182382196</v>
+      </c>
+      <c r="G35">
+        <v>0.009002597922582173</v>
+      </c>
+      <c r="H35">
+        <v>0.03903220609049924</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02016614047655827</v>
+        <v>-0.02617998667628197</v>
       </c>
       <c r="C36">
-        <v>-0.01692100556250141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01284922887443447</v>
+      </c>
+      <c r="D36">
+        <v>0.01629767741276992</v>
+      </c>
+      <c r="E36">
+        <v>-0.04027286725309327</v>
+      </c>
+      <c r="F36">
+        <v>-0.0166020584428653</v>
+      </c>
+      <c r="G36">
+        <v>0.007609092087938689</v>
+      </c>
+      <c r="H36">
+        <v>0.05325144042589663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.040763629700097</v>
+        <v>-0.04357825282918879</v>
       </c>
       <c r="C38">
-        <v>-0.00356929152040064</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.002639245073806011</v>
+      </c>
+      <c r="D38">
+        <v>0.01837299742588241</v>
+      </c>
+      <c r="E38">
+        <v>-0.06048996642658028</v>
+      </c>
+      <c r="F38">
+        <v>0.01491464644308343</v>
+      </c>
+      <c r="G38">
+        <v>-0.01822180194719483</v>
+      </c>
+      <c r="H38">
+        <v>0.02507080398224993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09352274429663848</v>
+        <v>-0.1031524471888194</v>
       </c>
       <c r="C39">
-        <v>-0.07227598617504895</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.04746646455551007</v>
+      </c>
+      <c r="D39">
+        <v>0.07273167619725886</v>
+      </c>
+      <c r="E39">
+        <v>0.01555699267529098</v>
+      </c>
+      <c r="F39">
+        <v>-0.01090942332249109</v>
+      </c>
+      <c r="G39">
+        <v>-0.0294179397334787</v>
+      </c>
+      <c r="H39">
+        <v>0.06181708862392588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07445434305802766</v>
+        <v>-0.07149374078033673</v>
       </c>
       <c r="C40">
-        <v>-0.04029051546504771</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.01927160520477986</v>
+      </c>
+      <c r="D40">
+        <v>0.004145244971337692</v>
+      </c>
+      <c r="E40">
+        <v>-0.01549879531922605</v>
+      </c>
+      <c r="F40">
+        <v>0.05677268448049808</v>
+      </c>
+      <c r="G40">
+        <v>-0.04110025473119921</v>
+      </c>
+      <c r="H40">
+        <v>-0.06982879229454175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04030148111000736</v>
+        <v>-0.04286497248538761</v>
       </c>
       <c r="C41">
-        <v>-0.00599451077848749</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.00163413430027195</v>
+      </c>
+      <c r="D41">
+        <v>0.03799058398541901</v>
+      </c>
+      <c r="E41">
+        <v>-0.006254190737207733</v>
+      </c>
+      <c r="F41">
+        <v>0.01341732811568241</v>
+      </c>
+      <c r="G41">
+        <v>-0.01332196060327057</v>
+      </c>
+      <c r="H41">
+        <v>0.03371923578910598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04639608799952623</v>
+        <v>-0.05495772755056956</v>
       </c>
       <c r="C43">
-        <v>-0.02517068306825781</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01608362742150049</v>
+      </c>
+      <c r="D43">
+        <v>0.02706716938935773</v>
+      </c>
+      <c r="E43">
+        <v>-0.01568252626006861</v>
+      </c>
+      <c r="F43">
+        <v>-0.008922461385254951</v>
+      </c>
+      <c r="G43">
+        <v>0.006354107176492597</v>
+      </c>
+      <c r="H43">
+        <v>0.04842309870852835</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09552253595983602</v>
+        <v>-0.09031619289712831</v>
       </c>
       <c r="C44">
-        <v>-0.09364836174224155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06077329336296472</v>
+      </c>
+      <c r="D44">
+        <v>0.06956860816084529</v>
+      </c>
+      <c r="E44">
+        <v>-0.08035369997189545</v>
+      </c>
+      <c r="F44">
+        <v>-0.04232396940729811</v>
+      </c>
+      <c r="G44">
+        <v>-0.02194059780857684</v>
+      </c>
+      <c r="H44">
+        <v>0.01467276138377827</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02468285718163251</v>
+        <v>-0.03121455856624588</v>
       </c>
       <c r="C46">
-        <v>-0.01295086793801596</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.008849001276495946</v>
+      </c>
+      <c r="D46">
+        <v>0.03459037002700019</v>
+      </c>
+      <c r="E46">
+        <v>-0.02207365670075247</v>
+      </c>
+      <c r="F46">
+        <v>-0.01690992295558695</v>
+      </c>
+      <c r="G46">
+        <v>-0.00664491812856615</v>
+      </c>
+      <c r="H46">
+        <v>0.03642267877211101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.02743806833240088</v>
+        <v>-0.03513773069279728</v>
       </c>
       <c r="C47">
-        <v>-0.02550703686293826</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01949136365736388</v>
+      </c>
+      <c r="D47">
+        <v>0.0195366078475024</v>
+      </c>
+      <c r="E47">
+        <v>-0.05052923901400178</v>
+      </c>
+      <c r="F47">
+        <v>-0.01188789472238599</v>
+      </c>
+      <c r="G47">
+        <v>0.03993223202228255</v>
+      </c>
+      <c r="H47">
+        <v>0.02823519451196008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03089130092328206</v>
+        <v>-0.03693321238665295</v>
       </c>
       <c r="C48">
-        <v>-0.01541971203321491</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.008929261334975533</v>
+      </c>
+      <c r="D48">
+        <v>0.0256311416388318</v>
+      </c>
+      <c r="E48">
+        <v>-0.0435350251872477</v>
+      </c>
+      <c r="F48">
+        <v>-0.003203592428126481</v>
+      </c>
+      <c r="G48">
+        <v>-0.0114135514034048</v>
+      </c>
+      <c r="H48">
+        <v>0.05430548841834922</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1645965775528133</v>
+        <v>-0.1921197644735022</v>
       </c>
       <c r="C49">
-        <v>-0.06621101865311925</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.03781857677162322</v>
+      </c>
+      <c r="D49">
+        <v>0.0208560898717612</v>
+      </c>
+      <c r="E49">
+        <v>0.1269772455823819</v>
+      </c>
+      <c r="F49">
+        <v>-0.0629097546927361</v>
+      </c>
+      <c r="G49">
+        <v>0.07545617981913998</v>
+      </c>
+      <c r="H49">
+        <v>-0.2251717647488627</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03755369921547171</v>
+        <v>-0.04497392995488465</v>
       </c>
       <c r="C50">
-        <v>-0.02197989697047047</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.0152202756433543</v>
+      </c>
+      <c r="D50">
+        <v>0.03736454090998573</v>
+      </c>
+      <c r="E50">
+        <v>-0.05123631993270076</v>
+      </c>
+      <c r="F50">
+        <v>-0.01661885649904354</v>
+      </c>
+      <c r="G50">
+        <v>0.01355570901040358</v>
+      </c>
+      <c r="H50">
+        <v>0.06866081454485728</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02601391423796605</v>
+        <v>-0.02703675899367737</v>
       </c>
       <c r="C51">
-        <v>-0.01002298028454999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.005393102797889252</v>
+      </c>
+      <c r="D51">
+        <v>0.02141419129863771</v>
+      </c>
+      <c r="E51">
+        <v>-0.0163670283854794</v>
+      </c>
+      <c r="F51">
+        <v>-0.008013749538846609</v>
+      </c>
+      <c r="G51">
+        <v>-0.002352472888426853</v>
+      </c>
+      <c r="H51">
+        <v>-0.003073509014487412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1493403353272204</v>
+        <v>-0.1614156240346252</v>
       </c>
       <c r="C53">
-        <v>-0.07924420209963959</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.0516527518102651</v>
+      </c>
+      <c r="D53">
+        <v>0.02201454640674328</v>
+      </c>
+      <c r="E53">
+        <v>0.03279813694203884</v>
+      </c>
+      <c r="F53">
+        <v>-0.0158167370551633</v>
+      </c>
+      <c r="G53">
+        <v>-0.004693078506759744</v>
+      </c>
+      <c r="H53">
+        <v>0.1514048887738509</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05505916086117947</v>
+        <v>-0.05591956851900311</v>
       </c>
       <c r="C54">
-        <v>-0.02344745703305467</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01097710879321464</v>
+      </c>
+      <c r="D54">
+        <v>0.02196559596360584</v>
+      </c>
+      <c r="E54">
+        <v>-0.04876927512824417</v>
+      </c>
+      <c r="F54">
+        <v>-0.005194916813935761</v>
+      </c>
+      <c r="G54">
+        <v>-0.01771486045668038</v>
+      </c>
+      <c r="H54">
+        <v>0.06323842992856291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09850337802668592</v>
+        <v>-0.1017539477869715</v>
       </c>
       <c r="C55">
-        <v>-0.05545816428360786</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03525998065164124</v>
+      </c>
+      <c r="D55">
+        <v>0.02802400369231056</v>
+      </c>
+      <c r="E55">
+        <v>-0.01052232732690991</v>
+      </c>
+      <c r="F55">
+        <v>-0.01467353096003653</v>
+      </c>
+      <c r="G55">
+        <v>-0.01620354854271176</v>
+      </c>
+      <c r="H55">
+        <v>0.1452195420877698</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1474109341845279</v>
+        <v>-0.1606216476882956</v>
       </c>
       <c r="C56">
-        <v>-0.09321822990438917</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.06434393011940835</v>
+      </c>
+      <c r="D56">
+        <v>0.01993901998794989</v>
+      </c>
+      <c r="E56">
+        <v>0.03167079007031023</v>
+      </c>
+      <c r="F56">
+        <v>-0.03349254566654616</v>
+      </c>
+      <c r="G56">
+        <v>0.000372824569224998</v>
+      </c>
+      <c r="H56">
+        <v>0.1576503264721336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1192835428555591</v>
+        <v>-0.09630424235503071</v>
       </c>
       <c r="C58">
-        <v>-0.003091164687659277</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.03617119380364298</v>
+      </c>
+      <c r="D58">
+        <v>0.0492247605463241</v>
+      </c>
+      <c r="E58">
+        <v>-0.1687982774060194</v>
+      </c>
+      <c r="F58">
+        <v>-0.001762282242099913</v>
+      </c>
+      <c r="G58">
+        <v>0.06348260258407004</v>
+      </c>
+      <c r="H58">
+        <v>-0.1602347012684856</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1195098938435105</v>
+        <v>-0.1427716317991429</v>
       </c>
       <c r="C59">
-        <v>-0.0802524310194708</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08837730043653538</v>
+      </c>
+      <c r="D59">
+        <v>-0.3608767712579842</v>
+      </c>
+      <c r="E59">
+        <v>-0.05087412015097958</v>
+      </c>
+      <c r="F59">
+        <v>-0.004473221963746523</v>
+      </c>
+      <c r="G59">
+        <v>0.039804437751688</v>
+      </c>
+      <c r="H59">
+        <v>0.001319080387761761</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2010751248701543</v>
+        <v>-0.2290057996274598</v>
       </c>
       <c r="C60">
-        <v>-0.1027363528699308</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.06800087720572301</v>
+      </c>
+      <c r="D60">
+        <v>0.02910828610432296</v>
+      </c>
+      <c r="E60">
+        <v>0.06820372702525659</v>
+      </c>
+      <c r="F60">
+        <v>-0.0574800940756219</v>
+      </c>
+      <c r="G60">
+        <v>-0.01478124119228343</v>
+      </c>
+      <c r="H60">
+        <v>-0.1610726188822985</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0790687608864906</v>
+        <v>-0.08699559374311276</v>
       </c>
       <c r="C61">
-        <v>-0.04942362057660545</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03215827837475828</v>
+      </c>
+      <c r="D61">
+        <v>0.05040940544515227</v>
+      </c>
+      <c r="E61">
+        <v>0.01369670429950576</v>
+      </c>
+      <c r="F61">
+        <v>-0.007396791308292373</v>
+      </c>
+      <c r="G61">
+        <v>0.001184814491668215</v>
+      </c>
+      <c r="H61">
+        <v>0.06884380102949703</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.12736122278208</v>
+        <v>-0.1395439016817405</v>
       </c>
       <c r="C62">
-        <v>-0.06753172970425879</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.04300762046903267</v>
+      </c>
+      <c r="D62">
+        <v>0.02724428998975589</v>
+      </c>
+      <c r="E62">
+        <v>0.05518103753781855</v>
+      </c>
+      <c r="F62">
+        <v>-0.01129356164588158</v>
+      </c>
+      <c r="G62">
+        <v>-0.03887650820009443</v>
+      </c>
+      <c r="H62">
+        <v>0.1589153506200211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05359549005510367</v>
+        <v>-0.05208531031989184</v>
       </c>
       <c r="C63">
-        <v>-0.02654684615240787</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01332126062721654</v>
+      </c>
+      <c r="D63">
+        <v>0.0261616116236088</v>
+      </c>
+      <c r="E63">
+        <v>-0.0518697357489824</v>
+      </c>
+      <c r="F63">
+        <v>0.004311905127823235</v>
+      </c>
+      <c r="G63">
+        <v>-0.03822040560230219</v>
+      </c>
+      <c r="H63">
+        <v>0.07133974411445002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1090816172950594</v>
+        <v>-0.1116103918151197</v>
       </c>
       <c r="C64">
-        <v>-0.02802741175426758</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.004440751808291177</v>
+      </c>
+      <c r="D64">
+        <v>0.04305215013581031</v>
+      </c>
+      <c r="E64">
+        <v>-0.03246506119945267</v>
+      </c>
+      <c r="F64">
+        <v>-0.04798511570064698</v>
+      </c>
+      <c r="G64">
+        <v>-0.0431978344718944</v>
+      </c>
+      <c r="H64">
+        <v>0.07256202518810594</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1206258431698738</v>
+        <v>-0.1269928449029235</v>
       </c>
       <c r="C65">
-        <v>-0.05918003937174741</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.0366288808618762</v>
+      </c>
+      <c r="D65">
+        <v>0.001342322713632903</v>
+      </c>
+      <c r="E65">
+        <v>-0.005733684851699076</v>
+      </c>
+      <c r="F65">
+        <v>-0.06690312935023113</v>
+      </c>
+      <c r="G65">
+        <v>-0.05399698478780813</v>
+      </c>
+      <c r="H65">
+        <v>-0.0853594499163213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1439585624067074</v>
+        <v>-0.1561846888969848</v>
       </c>
       <c r="C66">
-        <v>-0.0769800006401999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.04404716906734925</v>
+      </c>
+      <c r="D66">
+        <v>0.1113200428584515</v>
+      </c>
+      <c r="E66">
+        <v>0.0519591569902365</v>
+      </c>
+      <c r="F66">
+        <v>-0.02436720346796848</v>
+      </c>
+      <c r="G66">
+        <v>-0.03614057856734138</v>
+      </c>
+      <c r="H66">
+        <v>0.1355688323055016</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07369274580136892</v>
+        <v>-0.08169970476871187</v>
       </c>
       <c r="C67">
-        <v>-0.01555031549809301</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.004376576922193513</v>
+      </c>
+      <c r="D67">
+        <v>0.02991471923303723</v>
+      </c>
+      <c r="E67">
+        <v>-0.031686650831676</v>
+      </c>
+      <c r="F67">
+        <v>-0.009354469166020412</v>
+      </c>
+      <c r="G67">
+        <v>0.003033129091067905</v>
+      </c>
+      <c r="H67">
+        <v>0.02358946475085913</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05988102799570089</v>
+        <v>-0.06386286565051241</v>
       </c>
       <c r="C68">
-        <v>-0.05008328279151164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.05684832227763213</v>
+      </c>
+      <c r="D68">
+        <v>-0.2642239437603645</v>
+      </c>
+      <c r="E68">
+        <v>-0.05229948673007263</v>
+      </c>
+      <c r="F68">
+        <v>-0.008890869099635913</v>
+      </c>
+      <c r="G68">
+        <v>0.01421636159126393</v>
+      </c>
+      <c r="H68">
+        <v>0.02002425839956434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05222522086258408</v>
+        <v>-0.05183631275243421</v>
       </c>
       <c r="C69">
-        <v>-0.01891596774252107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.004797865890241891</v>
+      </c>
+      <c r="D69">
+        <v>0.01961525591084974</v>
+      </c>
+      <c r="E69">
+        <v>-0.0246780125919237</v>
+      </c>
+      <c r="F69">
+        <v>0.006339086650425183</v>
+      </c>
+      <c r="G69">
+        <v>0.01202301544203601</v>
+      </c>
+      <c r="H69">
+        <v>0.05681322140207103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004982878941132073</v>
+        <v>-0.02534862005013041</v>
       </c>
       <c r="C70">
-        <v>0.004618338914288688</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0004873642100998373</v>
+      </c>
+      <c r="D70">
+        <v>-0.0005412670343620206</v>
+      </c>
+      <c r="E70">
+        <v>0.02342869524052988</v>
+      </c>
+      <c r="F70">
+        <v>-0.02342263599431505</v>
+      </c>
+      <c r="G70">
+        <v>0.02680932150856118</v>
+      </c>
+      <c r="H70">
+        <v>-0.059046440822956</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06107733497372533</v>
+        <v>-0.06732644920208337</v>
       </c>
       <c r="C71">
-        <v>-0.05024624577501807</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.05929777463006978</v>
+      </c>
+      <c r="D71">
+        <v>-0.291378359798969</v>
+      </c>
+      <c r="E71">
+        <v>-0.04782237280662711</v>
+      </c>
+      <c r="F71">
+        <v>-0.04068574825645168</v>
+      </c>
+      <c r="G71">
+        <v>0.002699971332305978</v>
+      </c>
+      <c r="H71">
+        <v>0.01929950240724335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1401190288527467</v>
+        <v>-0.1529847299376752</v>
       </c>
       <c r="C72">
-        <v>-0.06519266520438312</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.03902772199784924</v>
+      </c>
+      <c r="D72">
+        <v>-0.0055789562500024</v>
+      </c>
+      <c r="E72">
+        <v>0.1095347407879778</v>
+      </c>
+      <c r="F72">
+        <v>0.158222868940781</v>
+      </c>
+      <c r="G72">
+        <v>-0.113279726740066</v>
+      </c>
+      <c r="H72">
+        <v>0.01635912570644625</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2659548408942844</v>
+        <v>-0.2857572711159147</v>
       </c>
       <c r="C73">
-        <v>-0.1148673045990368</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.05541783999820141</v>
+      </c>
+      <c r="D73">
+        <v>0.09110665717576068</v>
+      </c>
+      <c r="E73">
+        <v>0.1944459178305221</v>
+      </c>
+      <c r="F73">
+        <v>-0.1099221113817773</v>
+      </c>
+      <c r="G73">
+        <v>0.2180849128518824</v>
+      </c>
+      <c r="H73">
+        <v>-0.5226114846029762</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07942439970606097</v>
+        <v>-0.09071516324879726</v>
       </c>
       <c r="C74">
-        <v>-0.07854751315941234</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.059329069887585</v>
+      </c>
+      <c r="D74">
+        <v>0.0301119081839373</v>
+      </c>
+      <c r="E74">
+        <v>0.007245758040484261</v>
+      </c>
+      <c r="F74">
+        <v>0.01342852591660033</v>
+      </c>
+      <c r="G74">
+        <v>0.02853364353737151</v>
+      </c>
+      <c r="H74">
+        <v>0.1263957399926582</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09519683894444823</v>
+        <v>-0.1016532523174335</v>
       </c>
       <c r="C75">
-        <v>-0.05328014778844953</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02855881808971187</v>
+      </c>
+      <c r="D75">
+        <v>0.01363021214234235</v>
+      </c>
+      <c r="E75">
+        <v>-0.008379131690358518</v>
+      </c>
+      <c r="F75">
+        <v>-0.0408074148013871</v>
+      </c>
+      <c r="G75">
+        <v>0.004844525761901584</v>
+      </c>
+      <c r="H75">
+        <v>0.1157020668263856</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1273621884234143</v>
+        <v>-0.1372129789002869</v>
       </c>
       <c r="C76">
-        <v>-0.08430127808043385</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.05544991229854939</v>
+      </c>
+      <c r="D76">
+        <v>0.05811795042963849</v>
+      </c>
+      <c r="E76">
+        <v>-0.02323785970989124</v>
+      </c>
+      <c r="F76">
+        <v>-0.04655561289792275</v>
+      </c>
+      <c r="G76">
+        <v>-0.006303381139591079</v>
+      </c>
+      <c r="H76">
+        <v>0.1557165240051763</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1234781678696743</v>
+        <v>-0.1148941072142348</v>
       </c>
       <c r="C77">
-        <v>-0.02938198424457077</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.003479856511128231</v>
+      </c>
+      <c r="D77">
+        <v>0.02107408560879108</v>
+      </c>
+      <c r="E77">
+        <v>0.01420144815329503</v>
+      </c>
+      <c r="F77">
+        <v>-0.177830242256795</v>
+      </c>
+      <c r="G77">
+        <v>-0.8778004887448736</v>
+      </c>
+      <c r="H77">
+        <v>-0.2295056792266563</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.09422860049315307</v>
+        <v>-0.1264524744621339</v>
       </c>
       <c r="C78">
-        <v>-0.04052817650823001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03057295276698944</v>
+      </c>
+      <c r="D78">
+        <v>0.09186625932574188</v>
+      </c>
+      <c r="E78">
+        <v>-0.06045145040763615</v>
+      </c>
+      <c r="F78">
+        <v>-0.01431389047564816</v>
+      </c>
+      <c r="G78">
+        <v>-0.04032811870993645</v>
+      </c>
+      <c r="H78">
+        <v>-0.09155211824071269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.146992322879262</v>
+        <v>-0.1519504220845845</v>
       </c>
       <c r="C79">
-        <v>-0.0825466338032869</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.04643132747316565</v>
+      </c>
+      <c r="D79">
+        <v>0.02988340547838871</v>
+      </c>
+      <c r="E79">
+        <v>0.01854793653250932</v>
+      </c>
+      <c r="F79">
+        <v>-0.01168598478734942</v>
+      </c>
+      <c r="G79">
+        <v>0.01506249082904165</v>
+      </c>
+      <c r="H79">
+        <v>0.1686665720895676</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04243403895894634</v>
+        <v>-0.04335437284828945</v>
       </c>
       <c r="C80">
-        <v>-0.01510604258597066</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.005622799588832877</v>
+      </c>
+      <c r="D80">
+        <v>0.02630379535111329</v>
+      </c>
+      <c r="E80">
+        <v>0.007055522264491448</v>
+      </c>
+      <c r="F80">
+        <v>0.01372362698315597</v>
+      </c>
+      <c r="G80">
+        <v>0.0407094713442223</v>
+      </c>
+      <c r="H80">
+        <v>0.03677657576298295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1185317035580491</v>
+        <v>-0.1210757519093053</v>
       </c>
       <c r="C81">
-        <v>-0.06708917327318605</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03665810761836386</v>
+      </c>
+      <c r="D81">
+        <v>0.02816262928598574</v>
+      </c>
+      <c r="E81">
+        <v>-0.008381702193398064</v>
+      </c>
+      <c r="F81">
+        <v>-0.02159389335726187</v>
+      </c>
+      <c r="G81">
+        <v>0.0350942320189935</v>
+      </c>
+      <c r="H81">
+        <v>0.1786785503122433</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.126267802619002</v>
+        <v>-0.1295866183282366</v>
       </c>
       <c r="C82">
-        <v>-0.07782056668747797</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.04830715023641245</v>
+      </c>
+      <c r="D82">
+        <v>0.03388376180286816</v>
+      </c>
+      <c r="E82">
+        <v>0.01311715680558028</v>
+      </c>
+      <c r="F82">
+        <v>-0.05946137773065246</v>
+      </c>
+      <c r="G82">
+        <v>0.02883108920585796</v>
+      </c>
+      <c r="H82">
+        <v>0.1810930980231816</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0772311271035712</v>
+        <v>-0.08394011675927368</v>
       </c>
       <c r="C83">
-        <v>0.001332821629381879</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.0183478840619311</v>
+      </c>
+      <c r="D83">
+        <v>0.04138051942892081</v>
+      </c>
+      <c r="E83">
+        <v>-0.01856718386612367</v>
+      </c>
+      <c r="F83">
+        <v>-0.05789956376531483</v>
+      </c>
+      <c r="G83">
+        <v>0.1028929410027641</v>
+      </c>
+      <c r="H83">
+        <v>-0.06107366610697639</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02828598122788205</v>
+        <v>-0.03982164978942791</v>
       </c>
       <c r="C84">
-        <v>-0.02422968834634983</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01898916324688879</v>
+      </c>
+      <c r="D84">
+        <v>0.03730848894692964</v>
+      </c>
+      <c r="E84">
+        <v>-0.01976959835895618</v>
+      </c>
+      <c r="F84">
+        <v>0.04935682002784768</v>
+      </c>
+      <c r="G84">
+        <v>0.06383852824979415</v>
+      </c>
+      <c r="H84">
+        <v>0.01942198761981982</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1199545919451924</v>
+        <v>-0.1202961192022629</v>
       </c>
       <c r="C85">
-        <v>-0.06319995679098818</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03247986349661015</v>
+      </c>
+      <c r="D85">
+        <v>0.03097112784664376</v>
+      </c>
+      <c r="E85">
+        <v>-0.01286873578780908</v>
+      </c>
+      <c r="F85">
+        <v>-0.04762019359336139</v>
+      </c>
+      <c r="G85">
+        <v>0.006239381875657391</v>
+      </c>
+      <c r="H85">
+        <v>0.1490768838436606</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0501034934826648</v>
+        <v>-0.05569151706893614</v>
       </c>
       <c r="C86">
-        <v>-0.02950429807213491</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01769697678290432</v>
+      </c>
+      <c r="D86">
+        <v>0.02605457139347592</v>
+      </c>
+      <c r="E86">
+        <v>-0.04826268481091647</v>
+      </c>
+      <c r="F86">
+        <v>-0.02646117966326486</v>
+      </c>
+      <c r="G86">
+        <v>0.005287843894779942</v>
+      </c>
+      <c r="H86">
+        <v>0.0166171785768678</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.120208759872706</v>
+        <v>-0.1197996291247714</v>
       </c>
       <c r="C87">
-        <v>-0.0716737745125209</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.03620043597719448</v>
+      </c>
+      <c r="D87">
+        <v>0.07287090450655057</v>
+      </c>
+      <c r="E87">
+        <v>-0.01560632018610796</v>
+      </c>
+      <c r="F87">
+        <v>-0.001193346490354405</v>
+      </c>
+      <c r="G87">
+        <v>-0.1104995137051591</v>
+      </c>
+      <c r="H87">
+        <v>-0.01158760280701555</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05389829924802795</v>
+        <v>-0.05931144063633978</v>
       </c>
       <c r="C88">
-        <v>-0.03170938675426659</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02024511451133948</v>
+      </c>
+      <c r="D88">
+        <v>0.02665506556498315</v>
+      </c>
+      <c r="E88">
+        <v>-0.01589224092220808</v>
+      </c>
+      <c r="F88">
+        <v>-0.005558296244958876</v>
+      </c>
+      <c r="G88">
+        <v>-0.01467874138237722</v>
+      </c>
+      <c r="H88">
+        <v>0.05576823748002057</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08572252976255995</v>
+        <v>-0.1020209704970792</v>
       </c>
       <c r="C89">
-        <v>-0.06603843691182676</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07842947648604125</v>
+      </c>
+      <c r="D89">
+        <v>-0.3288484224270518</v>
+      </c>
+      <c r="E89">
+        <v>-0.08517095616440502</v>
+      </c>
+      <c r="F89">
+        <v>-0.07642008965855174</v>
+      </c>
+      <c r="G89">
+        <v>0.02027844288914042</v>
+      </c>
+      <c r="H89">
+        <v>0.005110843276599121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07398842320189736</v>
+        <v>-0.08408974993273273</v>
       </c>
       <c r="C90">
-        <v>-0.05853673819868886</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06736495472852717</v>
+      </c>
+      <c r="D90">
+        <v>-0.3035695133685192</v>
+      </c>
+      <c r="E90">
+        <v>-0.06576929168875376</v>
+      </c>
+      <c r="F90">
+        <v>-0.005514555667729864</v>
+      </c>
+      <c r="G90">
+        <v>0.003252536653230249</v>
+      </c>
+      <c r="H90">
+        <v>0.01633498898528282</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.0842729480261856</v>
+        <v>-0.08887001205010396</v>
       </c>
       <c r="C91">
-        <v>-0.05429569171445047</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.03323551708503919</v>
+      </c>
+      <c r="D91">
+        <v>0.0327200638725757</v>
+      </c>
+      <c r="E91">
+        <v>-0.01430170345633688</v>
+      </c>
+      <c r="F91">
+        <v>-0.005151236334630002</v>
+      </c>
+      <c r="G91">
+        <v>0.04353636825739041</v>
+      </c>
+      <c r="H91">
+        <v>0.0737457378115767</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.08061794936942178</v>
+        <v>-0.09213883197312828</v>
       </c>
       <c r="C92">
-        <v>-0.07678257377904951</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.08644034185853414</v>
+      </c>
+      <c r="D92">
+        <v>-0.3383502798753289</v>
+      </c>
+      <c r="E92">
+        <v>-0.05921335953469799</v>
+      </c>
+      <c r="F92">
+        <v>-0.03371271181025875</v>
+      </c>
+      <c r="G92">
+        <v>-0.006985811644589471</v>
+      </c>
+      <c r="H92">
+        <v>0.01583659669156057</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06723068773536228</v>
+        <v>-0.08348126009802312</v>
       </c>
       <c r="C93">
-        <v>-0.0637333189371567</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.07729405200142848</v>
+      </c>
+      <c r="D93">
+        <v>-0.3017946837054992</v>
+      </c>
+      <c r="E93">
+        <v>-0.0427063917800869</v>
+      </c>
+      <c r="F93">
+        <v>-0.04630253728441501</v>
+      </c>
+      <c r="G93">
+        <v>-0.007084673308078</v>
+      </c>
+      <c r="H93">
+        <v>-0.001680101612343455</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1325738584732074</v>
+        <v>-0.1266661660567709</v>
       </c>
       <c r="C94">
-        <v>-0.05743114367399699</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02003076985642538</v>
+      </c>
+      <c r="D94">
+        <v>0.04853817832102428</v>
+      </c>
+      <c r="E94">
+        <v>0.0166609045928941</v>
+      </c>
+      <c r="F94">
+        <v>-0.0260350640721896</v>
+      </c>
+      <c r="G94">
+        <v>0.03626290628127726</v>
+      </c>
+      <c r="H94">
+        <v>0.1128266918977044</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1177083239800645</v>
+        <v>-0.1261962591632095</v>
       </c>
       <c r="C95">
-        <v>-0.03712820727441242</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.009010624475555363</v>
+      </c>
+      <c r="D95">
+        <v>0.05834890647662549</v>
+      </c>
+      <c r="E95">
+        <v>0.0001390488195797563</v>
+      </c>
+      <c r="F95">
+        <v>-0.04136975919390262</v>
+      </c>
+      <c r="G95">
+        <v>0.01744687812141384</v>
+      </c>
+      <c r="H95">
+        <v>-0.02930643502839726</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2056705929122218</v>
+        <v>-0.2162736931246952</v>
       </c>
       <c r="C97">
-        <v>-0.04746179862958527</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.01078986538364771</v>
+      </c>
+      <c r="D97">
+        <v>-0.07773864632866558</v>
+      </c>
+      <c r="E97">
+        <v>0.2441593821269867</v>
+      </c>
+      <c r="F97">
+        <v>0.8858552300196637</v>
+      </c>
+      <c r="G97">
+        <v>-0.1100292990030919</v>
+      </c>
+      <c r="H97">
+        <v>-0.02619410291607099</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.246877909866125</v>
+        <v>-0.2740020847422145</v>
       </c>
       <c r="C98">
-        <v>-0.08422217214168157</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.03905134595377818</v>
+      </c>
+      <c r="D98">
+        <v>0.06183753886724078</v>
+      </c>
+      <c r="E98">
+        <v>0.1401165550601188</v>
+      </c>
+      <c r="F98">
+        <v>-0.07539259505194762</v>
+      </c>
+      <c r="G98">
+        <v>0.2802249837199778</v>
+      </c>
+      <c r="H98">
+        <v>-0.233205676484334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4584772077868465</v>
+        <v>-0.2863607733224768</v>
       </c>
       <c r="C99">
-        <v>0.8741582025830242</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9367416101223803</v>
+      </c>
+      <c r="D99">
+        <v>-0.1260707549091388</v>
+      </c>
+      <c r="E99">
+        <v>-0.0548363714402032</v>
+      </c>
+      <c r="F99">
+        <v>-0.04276027479146618</v>
+      </c>
+      <c r="G99">
+        <v>0.01440320689889116</v>
+      </c>
+      <c r="H99">
+        <v>0.06196098566607461</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04109558358493052</v>
+        <v>-0.04689825487742645</v>
       </c>
       <c r="C101">
-        <v>-0.03021226647320723</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02358529625259821</v>
+      </c>
+      <c r="D101">
+        <v>0.007198468546899853</v>
+      </c>
+      <c r="E101">
+        <v>-0.04714485160357826</v>
+      </c>
+      <c r="F101">
+        <v>-0.001684883334992158</v>
+      </c>
+      <c r="G101">
+        <v>-0.0009191731020932192</v>
+      </c>
+      <c r="H101">
+        <v>0.08661499123635215</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
